--- a/Results/Calculation/dp-partial-fasttext.xlsx
+++ b/Results/Calculation/dp-partial-fasttext.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H2">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I2">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>202</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>245</v>
@@ -499,16 +499,16 @@
         <v>63</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="H4">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="I4">
         <v>0.8100000000000001</v>
@@ -522,22 +522,22 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>68</v>
       </c>
       <c r="F5">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="G5">
         <v>0.48</v>
       </c>
       <c r="H5">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
         <v>0.73</v>
